--- a/Psicologia/HORARIOS PSICOLOGIA 2014.xlsx
+++ b/Psicologia/HORARIOS PSICOLOGIA 2014.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E031DBEA-F92E-4BD3-AB22-0D67C0C85236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CAE2C0-6366-43EA-BC2C-895F5A550250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="12" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="179">
   <si>
     <t>HORA</t>
   </si>
@@ -587,6 +587,24 @@
   </si>
   <si>
     <t>PS114(02)</t>
+  </si>
+  <si>
+    <t>PS606(03) GENERO Y SEXUALIDAD</t>
+  </si>
+  <si>
+    <t>PS606(03)</t>
+  </si>
+  <si>
+    <t>PS806(01)</t>
+  </si>
+  <si>
+    <t>204H</t>
+  </si>
+  <si>
+    <t>202H</t>
+  </si>
+  <si>
+    <t>205H</t>
   </si>
 </sst>
 </file>
@@ -919,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -971,30 +989,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1056,6 +1050,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1384,81 +1404,81 @@
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="24"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1481,7 +1501,7 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="32"/>
+      <c r="R6" s="24"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1522,12 +1542,12 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="33">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="25">
         <v>1</v>
       </c>
     </row>
@@ -1547,12 +1567,12 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="33">
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="25">
         <v>1</v>
       </c>
     </row>
@@ -1572,12 +1592,12 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="33">
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="25">
         <v>1</v>
       </c>
     </row>
@@ -1782,11 +1802,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -1799,6 +1814,11 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1808,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:R8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,81 +1845,81 @@
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="24"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1925,16 +1945,16 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="33">
         <v>4</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="34">
         <v>0</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="35">
         <v>5</v>
       </c>
     </row>
@@ -1962,16 +1982,16 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="25">
         <v>6</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="26">
         <v>0</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="25">
         <v>10</v>
       </c>
       <c r="S7" t="s">
@@ -2002,16 +2022,16 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="25">
         <v>3</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="26">
         <v>40</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="25">
         <v>2</v>
       </c>
       <c r="S8" t="s">
@@ -2034,16 +2054,16 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="25">
         <v>3</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="26">
         <v>40</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="25">
         <v>2</v>
       </c>
       <c r="S9" t="s">
@@ -2072,7 +2092,7 @@
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="16"/>
@@ -2093,7 +2113,7 @@
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4"/>
@@ -2198,7 +2218,7 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="16"/>
@@ -2223,7 +2243,7 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -2308,60 +2328,60 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2509,7 +2529,7 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2546,7 +2566,7 @@
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="4"/>
@@ -2691,7 +2711,7 @@
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -2728,7 +2748,7 @@
       <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="4"/>
@@ -2797,19 +2817,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
@@ -2822,11 +2834,19 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2848,85 +2868,85 @@
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="46" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="24"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2947,7 +2967,7 @@
       <c r="O6" s="17"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="35"/>
+      <c r="R6" s="27"/>
       <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2966,17 +2986,17 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26">
         <v>10</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="31">
         <v>1</v>
       </c>
-      <c r="S7" s="40" t="s">
+      <c r="S7" s="32" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2996,17 +3016,17 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26">
         <v>10</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="31">
         <v>1</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="32" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3029,7 +3049,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="36"/>
+      <c r="R9" s="28"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3048,17 +3068,17 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34">
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26">
         <v>10</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="31">
         <v>1</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="32" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3081,7 +3101,7 @@
       <c r="O11" s="18"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="36"/>
+      <c r="R11" s="28"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -3103,7 +3123,7 @@
       <c r="O12" s="18"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="37"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3125,7 +3145,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="12"/>
-      <c r="R13" s="38"/>
+      <c r="R13" s="30"/>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -3266,6 +3286,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
@@ -3282,8 +3304,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3306,85 +3326,85 @@
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="46" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3409,7 +3429,7 @@
       <c r="Q6" s="10">
         <v>10</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="24">
         <v>1</v>
       </c>
       <c r="S6" s="22" t="s">
@@ -3724,6 +3744,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
@@ -3740,8 +3762,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3764,85 +3784,85 @@
     <col min="9" max="9" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" customWidth="1"/>
     <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="46" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3860,17 +3880,17 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42">
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34">
         <v>10</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="35">
         <v>1</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="33" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3912,17 +3932,17 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26">
         <v>10</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="25">
         <v>1</v>
       </c>
-      <c r="S8" s="33" t="s">
+      <c r="S8" s="25" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3942,17 +3962,17 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34">
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26">
         <v>10</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="25">
         <v>1</v>
       </c>
-      <c r="S9" s="33" t="s">
+      <c r="S9" s="25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3994,17 +4014,17 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26">
         <v>10</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="25">
         <v>1</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4190,6 +4210,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
@@ -4206,8 +4228,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4218,7 +4238,7 @@
   <dimension ref="A3:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4229,81 +4249,81 @@
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="24"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4333,16 +4353,16 @@
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="33">
         <v>3</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="34">
         <v>20</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="35">
         <v>2</v>
       </c>
       <c r="S6" t="s">
@@ -4377,16 +4397,16 @@
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="25">
         <v>3</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="26">
         <v>40</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="25">
         <v>1</v>
       </c>
     </row>
@@ -4410,16 +4430,16 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="25">
         <v>2</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="26">
         <v>20</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="25">
         <v>2</v>
       </c>
     </row>
@@ -4443,16 +4463,16 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="25">
         <v>4</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="26">
         <v>20</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="25">
         <v>2</v>
       </c>
     </row>
@@ -4484,21 +4504,21 @@
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="25">
         <v>4</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="26">
         <v>20</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="16"/>
@@ -4525,21 +4545,24 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="25">
         <v>4</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="26">
         <v>20</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="25">
         <v>2</v>
       </c>
+      <c r="S11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4691,7 +4714,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -4719,7 +4742,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -4812,11 +4835,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -4829,6 +4847,11 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4839,7 +4862,7 @@
   <dimension ref="A3:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="P22" sqref="P21:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4850,81 +4873,81 @@
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="24"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4950,17 +4973,17 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="33">
         <v>3</v>
       </c>
-      <c r="Q6" s="46">
-        <v>20</v>
-      </c>
-      <c r="R6" s="43">
-        <v>2</v>
+      <c r="Q6" s="38">
+        <v>13</v>
+      </c>
+      <c r="R6" s="35">
+        <v>3</v>
       </c>
       <c r="S6" t="s">
         <v>104</v>
@@ -4990,16 +5013,16 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="25">
         <v>4</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="39">
         <v>22</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="25">
         <v>2</v>
       </c>
     </row>
@@ -5035,16 +5058,16 @@
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="25">
         <v>4</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="39">
         <v>22</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="25">
         <v>2</v>
       </c>
     </row>
@@ -5080,16 +5103,16 @@
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="25">
         <v>4</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="39">
         <v>22</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="25">
         <v>2</v>
       </c>
     </row>
@@ -5117,29 +5140,25 @@
       <c r="I10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="25">
         <v>2</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="39">
         <v>20</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="16"/>
@@ -5162,29 +5181,25 @@
       <c r="I11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="25">
         <v>4</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="39">
         <v>40</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5312,8 +5327,12 @@
       <c r="G15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -5333,8 +5352,12 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="J16" s="5" t="s">
         <v>114</v>
       </c>
@@ -5348,7 +5371,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="16"/>
@@ -5361,8 +5384,12 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="J17" s="16" t="s">
         <v>114</v>
       </c>
@@ -5376,7 +5403,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -5391,6 +5418,9 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
+      <c r="O18" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -5445,11 +5475,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -5462,6 +5487,11 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5487,76 +5517,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="24"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5574,16 +5604,16 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="33">
         <v>3</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="34">
         <v>22</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="35">
         <v>2</v>
       </c>
     </row>
@@ -5603,16 +5633,16 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="25">
         <v>4</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="26">
         <v>22</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="25">
         <v>2</v>
       </c>
     </row>
@@ -5640,16 +5670,16 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="25">
         <v>4</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="26">
         <v>22</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="25">
         <v>2</v>
       </c>
     </row>
@@ -5677,16 +5707,16 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="25">
         <v>4</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="26">
         <v>22</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="25">
         <v>2</v>
       </c>
     </row>
@@ -5714,21 +5744,21 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="25">
         <v>2</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="26">
         <v>22</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="16"/>
@@ -5757,7 +5787,7 @@
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5901,7 +5931,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -5933,7 +5963,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -6042,11 +6072,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -6059,6 +6084,11 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6068,8 +6098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6080,102 +6110,98 @@
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="24"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="E6" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="22" t="s">
         <v>140</v>
       </c>
@@ -6184,16 +6210,16 @@
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="33">
         <v>2</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="34">
         <v>25</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="35">
         <v>2</v>
       </c>
       <c r="S6" t="s">
@@ -6204,22 +6230,18 @@
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="E7" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
         <v>140</v>
       </c>
@@ -6228,16 +6250,16 @@
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="25">
         <v>3</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="26">
         <v>22</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="25">
         <v>3</v>
       </c>
     </row>
@@ -6245,26 +6267,22 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
         <v>140</v>
       </c>
@@ -6277,46 +6295,39 @@
       <c r="M8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="25">
         <v>3</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="26">
         <v>25</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="25">
         <v>2</v>
-      </c>
-      <c r="S8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
@@ -6325,16 +6336,16 @@
       <c r="M9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="25">
         <v>3</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="26">
         <v>25</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="25">
         <v>2</v>
       </c>
     </row>
@@ -6342,13 +6353,13 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
         <v>139</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -6362,30 +6373,30 @@
       <c r="M10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="25">
         <v>3</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="26">
         <v>25</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="16" t="s">
@@ -6399,34 +6410,34 @@
       <c r="M11" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="25">
         <v>4</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="26">
         <v>30</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45" t="s">
         <v>139</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -6449,18 +6460,22 @@
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="J13" s="6" t="s">
         <v>145</v>
       </c>
@@ -6474,22 +6489,26 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="H14" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="J14" s="22" t="s">
         <v>145</v>
       </c>
@@ -6503,22 +6522,30 @@
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="J15" s="5" t="s">
         <v>145</v>
       </c>
@@ -6532,28 +6559,28 @@
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>141</v>
+      <c r="J16" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>87</v>
@@ -6565,31 +6592,31 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="16" t="s">
-        <v>141</v>
+      <c r="J17" s="54" t="s">
+        <v>175</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>87</v>
@@ -6601,87 +6628,82 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="53" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
       <c r="O18" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -6694,6 +6716,11 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6703,7 +6730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -6720,86 +6747,86 @@
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="11.42578125" style="23"/>
     <col min="19" max="19" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -6829,16 +6856,16 @@
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="33">
         <v>4</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="34">
         <v>0</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="35">
         <v>5</v>
       </c>
       <c r="S6" s="4"/>
@@ -6874,16 +6901,16 @@
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="25">
         <v>6</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="26">
         <v>0</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="25">
         <v>10</v>
       </c>
       <c r="S7" s="5"/>
@@ -6908,16 +6935,16 @@
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="25">
         <v>3</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="26">
         <v>30</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="25">
         <v>2</v>
       </c>
       <c r="S8" s="5"/>
@@ -6938,16 +6965,16 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="25">
         <v>4</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="26">
         <v>35</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="25">
         <v>2</v>
       </c>
       <c r="S9" s="5"/>
@@ -6983,7 +7010,7 @@
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="16"/>
@@ -7013,7 +7040,7 @@
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4"/>
@@ -7114,7 +7141,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -7138,7 +7165,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -7232,60 +7259,60 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -7433,7 +7460,7 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -7470,7 +7497,7 @@
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="4"/>
@@ -7615,7 +7642,7 @@
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -7652,7 +7679,7 @@
       <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="4"/>
@@ -7721,19 +7748,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -7746,12 +7766,19 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
